--- a/medicine/Enfance/Il_était_une_fois_(expression)/Il_était_une_fois_(expression).xlsx
+++ b/medicine/Enfance/Il_était_une_fois_(expression)/Il_était_une_fois_(expression).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Il_%C3%A9tait_une_fois_(expression)</t>
+          <t>Il_était_une_fois_(expression)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">« Il était une fois » est une expression qui, dans la tradition populaire, introduit un conte. Elle renvoie à un passé ancien non défini et à l'univers du merveilleux.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Il_%C3%A9tait_une_fois_(expression)</t>
+          <t>Il_était_une_fois_(expression)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,48 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>C’est à Charles Perrault que l’on doit cette formule[1]. Il l’utilise pour la première fois dans Les Souhaits ridicules, parus en 1694, où elle n’apparaît qu’au vers 21. Il la reprend la même année pour ouvrir son premier conte merveilleux, Peau d'âne, après un préambule à la fois dédicace et mode de lecture. Il l’utilisera au total dans sept des huit récits en prose des Contes de ma mère l’Oye. La formule est depuis devenue une clef « magique », ouvrant tout l’univers des contes de fées[2]. À l'autre bout du récit, les formules concluant les contes peuvent être « Ils se marièrent et eurent beaucoup d'enfants » ou « Ils se marièrent et vécurent heureux ». Elles ne figurent cependant dans aucun des contes de Perrault.
-Variantes
-Il existe cependant plusieurs variantes de la célèbre formule, telles que : « En ce temps-là », « Il y a de cela, fort longtemps », etc. Les auteurs de contes l'ont donc soit reprise à l'identique, soit adaptée en fonction de leurs œuvres, comme dans les exemples suivants :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est à Charles Perrault que l’on doit cette formule. Il l’utilise pour la première fois dans Les Souhaits ridicules, parus en 1694, où elle n’apparaît qu’au vers 21. Il la reprend la même année pour ouvrir son premier conte merveilleux, Peau d'âne, après un préambule à la fois dédicace et mode de lecture. Il l’utilisera au total dans sept des huit récits en prose des Contes de ma mère l’Oye. La formule est depuis devenue une clef « magique », ouvrant tout l’univers des contes de fées. À l'autre bout du récit, les formules concluant les contes peuvent être « Ils se marièrent et eurent beaucoup d'enfants » ou « Ils se marièrent et vécurent heureux ». Elles ne figurent cependant dans aucun des contes de Perrault.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Il_était_une_fois_(expression)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois_(expression)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Variantes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Il existe cependant plusieurs variantes de la célèbre formule, telles que : « En ce temps-là », « Il y a de cela, fort longtemps », etc. Les auteurs de contes l'ont donc soit reprise à l'identique, soit adaptée en fonction de leurs œuvres, comme dans les exemples suivants :
 Madame d'Aulnoy
 Finette cendron ; Fortunée ; L’Oiseau bleu ; La Princesse Rosette ; Le Nain jaune ; Le Prince lutin : « Il était une fois »
 Babiole : « Il y avait un jour »
@@ -537,35 +586,72 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Il_%C3%A9tait_une_fois_(expression)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Il_était_une_fois_(expression)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois_(expression)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Autres langues</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'expression est reprise dans de nombreuses langues du monde. Elle est traduite à l'identique ou adaptée selon la culture :
-Afrique
-Afrikaans : Eendag, lank gelede
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'expression est reprise dans de nombreuses langues du monde. Elle est traduite à l'identique ou adaptée selon la culture :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Il_était_une_fois_(expression)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois_(expression)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Autres langues</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Afrikaans : Eendag, lank gelede
 Arabe algérien, Arabe marocain : حجيتك ما جيتك (Ḥadjitek mā ḥadjitek)
 Arabe : كان يا ماكان / Kān yā mākān
 berbère : Amacahu (amachahou) / Hadjendjel madjendjel
@@ -577,9 +663,43 @@
 Shimaoré : (Mayotte) Halé Halélé
 Shona : Paivapo
 Swahili (Afrique de l'Est) : Hapo zamani za kale
-Malgache (Madagascar): Taminy fotoana izany / - Taminy andro izany
-Asie
-Azéri : Biri var idi, biri yox idi
+Malgache (Madagascar): Taminy fotoana izany / - Taminy andro izany</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Il_était_une_fois_(expression)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois_(expression)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Autres langues</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Azéri : Biri var idi, biri yox idi
 Arménien : Կար-չկար / Kar-čkar
 Chinois : 很久很久以前 (很久很久以前) / Hěnjiǔ hěnjiǔ yǐqián, 从前 (從前) / Cóngqián
 Coréen : 옛날 옛적에 (yennal yetjeoge)
@@ -598,9 +718,43 @@
 Télougou : అనగా అనగా
 Thaï : กาลครั้งหนึ่งนานมาแล้ว
 Turc : Evvel zaman içinde
-Vietnamien : Ngày xửa ngày xưa
-Europe
-Allemand : Es war einmal
+Vietnamien : Ngày xửa ngày xưa</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Il_était_une_fois_(expression)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois_(expression)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Autres langues</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Allemand : Es war einmal
 Anglais : Once upon a time
 Basque : Bazen behin
 Breton : Ur wezh e oa, Ur wech e oa
@@ -614,7 +768,7 @@
 Finnois : Olipa kerran
 Gallo : Gn-avaet une fai de temp
 Gallois : Amser maith yn ôl
-Gascon : Un cop qu'i' aué[3]
+Gascon : Un cop qu'i' aué
 Grec : Μια φορά κι έναν καιρό / Mia forá ki énan keró
 Hongrois : Egyszer volt / Hhol nem volt / Volt egyszer egy
 Irlandais : Fadó, fadó, fadó a bhí ann
@@ -631,37 +785,73 @@
 Slovaque : Kde bolo - tam bolo
 Slovène : Pred davnimi časi / Nekoč
 Suédois : Det var en gång
-Tchèque : Bylo nebylo
-Langues construites
-Espéranto : Iam estis / En tempo jam de longa pasinta, kiam efikas ankoraŭ sorĉado</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Il_%C3%A9tait_une_fois_(expression)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+Tchèque : Bylo nebylo</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Il_était_une_fois_(expression)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois_(expression)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Autres langues</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Langues construites</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Espéranto : Iam estis / En tempo jam de longa pasinta, kiam efikas ankoraŭ sorĉado</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Il_était_une_fois_(expression)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Il_%C3%A9tait_une_fois_(expression)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Écrite « Il estoit une fois » dans l'édition d'origine du recueil des Contes de ma mère l'Oye, dans la forme du français de la fin du XVIIe siècle
